--- a/inputs/xlsx_templates/industry_report - Original.xlsx
+++ b/inputs/xlsx_templates/industry_report - Original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyewf\github_projects\xlsx_reporting\inputs\xlsx_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D93564A-8AA1-44F7-8F5D-06D148BDBAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7858A1D9-B21E-43A9-8A6F-CDFE0139A2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="13440" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>Employee Count</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Tables data</t>
   </si>
@@ -73,6 +70,12 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>Compmany Count</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -415,20 +418,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <f>COUNTA(companies[Company Name])</f>
@@ -437,16 +440,16 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <f>COUNTA(#REF!)-1</f>
-        <v>0</v>
+        <f>COUNTA(region_stats[Region Code])</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -458,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABA5BBB-6364-490E-9FDA-6DD1E03259C8}">
   <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="B10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,18 +472,18 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -491,7 +494,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -502,15 +505,15 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -518,7 +521,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>5</v>
